--- a/data/epp-11-data.xlsx
+++ b/data/epp-11-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948F5EA7-6613-8940-B893-5B56F53697C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0367D881-11D0-1244-81F2-A5383AF8DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>errorCode</t>
   </si>
@@ -171,12 +171,6 @@
     <t>NOT::HEX::</t>
   </si>
   <si>
-    <t>192.0.2.2</t>
-  </si>
-  <si>
-    <t>2001:DB8::53:2</t>
-  </si>
-  <si>
     <t>Data Provider for epp-11</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>EPP_HOST_CREATE_SERVER_DOES_NOT_REQUIRE_GLUE</t>
+  </si>
+  <si>
+    <t>{"ns2.epp-11.rst." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{"ns3.epp-11.rst." &amp; $TLD}</t>
   </si>
 </sst>
 </file>
@@ -344,16 +344,11 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -394,11 +389,16 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -491,8 +491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:G31" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B7:G31" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:G29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B7:G29" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -502,11 +502,11 @@
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4AE738EA-0F6E-7D4F-8E30-1F60F72D5773}" name="name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{DD252447-D4DE-114E-AF37-9116F81A100C}" name="createParentFirst" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{9D2F85A4-8ECB-0C46-BF52-02059D67DF93}" name="ip" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{DF12F6BB-79CC-F24D-93DC-3FD6FC6C8768}" name="addr" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DD252447-D4DE-114E-AF37-9116F81A100C}" name="createParentFirst" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9D2F85A4-8ECB-0C46-BF52-02059D67DF93}" name="ip" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DF12F6BB-79CC-F24D-93DC-3FD6FC6C8768}" name="addr" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00D82E93-146D-6544-AF62-0DE540BD8AA2}" name="passOrFail" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8BB18A73-00AF-4640-8340-D626F25C4C5F}" name="errorCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -829,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,7 +849,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -859,7 +859,7 @@
     </row>
     <row r="3" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -895,10 +895,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="8" spans="2:7" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -975,66 +975,66 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1050,8 +1050,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -1063,12 +1066,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -1080,12 +1083,12 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
@@ -1094,12 +1097,12 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>16</v>
@@ -1108,12 +1111,12 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
@@ -1122,12 +1125,12 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>18</v>
@@ -1136,12 +1139,12 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
@@ -1150,12 +1153,12 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
@@ -1170,9 +1173,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -1187,9 +1190,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>24</v>
@@ -1198,12 +1204,12 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
@@ -1212,12 +1218,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>26</v>
@@ -1226,12 +1232,12 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>27</v>
@@ -1240,12 +1246,12 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
@@ -1254,41 +1260,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-11-data.xlsx
+++ b/data/epp-11-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0367D881-11D0-1244-81F2-A5383AF8DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BF0EB-F3EF-0F41-996C-B91DF3DC689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
   <si>
     <t>errorCode</t>
   </si>
@@ -180,12 +180,6 @@
     <t>Hostname</t>
   </si>
   <si>
-    <t>ns1.epp-11.rst.icann</t>
-  </si>
-  <si>
-    <t>{RANDCHARS(64) &amp; ".epp-11.rst." &amp; $TLD}</t>
-  </si>
-  <si>
     <t>EPP_HOST_CREATE_SERVER_ACCEPTS_INVALID_HOSTNAME</t>
   </si>
   <si>
@@ -193,44 +187,48 @@
   </si>
   <si>
     <t>EPP_HOST_CREATE_SERVER_ACCEPTS_INVALID_IPv6_ADDRESS</t>
+  </si>
+  <si>
+    <t>createParentFirst</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Whether the superordinate domain name should be created before the subordinate host name is created (if it does not already exist)</t>
+  </si>
+  <si>
+    <t>EPP_HOST_CREATE_SERVER_DOES_NOT_REQUIRE_GLUE</t>
+  </si>
+  <si>
+    <t>{PREVIOUS}</t>
+  </si>
+  <si>
+    <t>{"ns1.epp-11.rst." &amp; RANDCHARS(18) &amp; ".icann"}</t>
+  </si>
+  <si>
+    <t>{"ns1.epp-11.rst." &amp; RANDCHARS(18) &amp; "." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{"!.epp-11.rst." &amp; RANDCHARS(18) &amp; ".icann"}</t>
+  </si>
+  <si>
+    <t>{"ns2.epp-11.rst." &amp; RANDCHARS(18) &amp; "." &amp; $TLD}</t>
+  </si>
+  <si>
+    <t>{"ns3.epp-11.rst." &amp; RANDCHARS(18) &amp; "." &amp; $TLD}</t>
   </si>
   <si>
     <t xml:space="preserve">* Values in {parentheses} are not literal values, they indicate that an appropriate value should be computed.
     * A value of `{EMPTY}` indicates an empty string.
+    * A value of `{PREVIOUS}` indicates that the value computed from the same column in the preceding row should be used.
 </t>
-  </si>
-  <si>
-    <t>{"ns1.epp-11.rst." &amp; $TLD}</t>
-  </si>
-  <si>
-    <t>!.invalid</t>
-  </si>
-  <si>
-    <t>createParentFirst</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Whether the superordinate domain name should be created before the subordinate host name is created (if it does not already exist)</t>
-  </si>
-  <si>
-    <t>{"!.epp-11.rst." &amp; $TLD}</t>
-  </si>
-  <si>
-    <t>EPP_HOST_CREATE_SERVER_DOES_NOT_REQUIRE_GLUE</t>
-  </si>
-  <si>
-    <t>{"ns2.epp-11.rst." &amp; $TLD}</t>
-  </si>
-  <si>
-    <t>{"ns3.epp-11.rst." &amp; $TLD}</t>
   </si>
 </sst>
 </file>
@@ -491,8 +489,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:G29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B7:G29" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:G28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B7:G28" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -829,16 +827,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:G29"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -857,9 +855,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -898,7 +896,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -918,7 +916,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -938,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -955,10 +953,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -975,292 +973,320 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1272,6 +1298,7 @@
     <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/data/epp-11-data.xlsx
+++ b/data/epp-11-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BF0EB-F3EF-0F41-996C-B91DF3DC689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB733E1-8496-C445-A6A9-2DFE64FF4F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>38</v>

--- a/data/epp-11-data.xlsx
+++ b/data/epp-11-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB733E1-8496-C445-A6A9-2DFE64FF4F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDDF34-BD0D-4D45-BEF9-D96CBAAA2D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>errorCode</t>
   </si>
@@ -126,15 +126,9 @@
     <t>v4</t>
   </si>
   <si>
-    <t>192.0.2.1</t>
-  </si>
-  <si>
     <t>EPP_UNEXPECTED_COMMAND_FAILURE</t>
   </si>
   <si>
-    <t>192.0.2</t>
-  </si>
-  <si>
     <t>a.b.c.d</t>
   </si>
   <si>
@@ -151,12 +145,6 @@
   </si>
   <si>
     <t>v6</t>
-  </si>
-  <si>
-    <t>2001:DB8::53:1</t>
-  </si>
-  <si>
-    <t>192.168.0.1</t>
   </si>
   <si>
     <t>::</t>
@@ -229,13 +217,31 @@
     * A value of `{EMPTY}` indicates an empty string.
     * A value of `{PREVIOUS}` indicates that the value computed from the same column in the preceding row should be used.
 </t>
+  </si>
+  <si>
+    <t>2602:800:900e:1257::4</t>
+  </si>
+  <si>
+    <t>208.77.190.196</t>
+  </si>
+  <si>
+    <t>208.77.190</t>
+  </si>
+  <si>
+    <t>208.77.190.197</t>
+  </si>
+  <si>
+    <t>208.77.190.198</t>
+  </si>
+  <si>
+    <t>2602:800:900e:1257::5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +276,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -291,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -299,11 +311,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF156082"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF156082"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +356,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -830,7 +856,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,7 +865,7 @@
     <col min="2" max="2" width="49" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
@@ -847,7 +873,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -857,7 +883,7 @@
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -893,10 +919,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -913,10 +939,10 @@
     </row>
     <row r="8" spans="2:7" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -936,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -953,10 +979,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -968,63 +994,63 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -1036,15 +1062,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -1056,143 +1082,143 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -1201,92 +1227,92 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-11-data.xlsx
+++ b/data/epp-11-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDDF34-BD0D-4D45-BEF9-D96CBAAA2D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D7018-E516-3D4D-AFFF-465B7B900603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -65,52 +65,6 @@
     <t>Error code if expected result is not produced</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes for authors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
-* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
-* Do not change anything except the contents of the table below and the box above.
-* All cells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MUST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have the "Text" type.
-* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
-* This means that all cells in the first row MUST be populated.</t>
-    </r>
-  </si>
-  <si>
     <t>ip</t>
   </si>
   <si>
@@ -235,13 +189,23 @@
   </si>
   <si>
     <t>2602:800:900e:1257::5</t>
+  </si>
+  <si>
+    <t>Notes for authors:
+* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
+* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
+* Do not change anything except the contents of the table below and the box above.
+* All cells MUST have the "Text" type.
+* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
+* This means that all cells in the first row MUST be populated.
+* IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,13 +230,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -340,6 +297,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -356,9 +316,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -856,7 +813,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,63 +829,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="25" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="2:7" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="2:7" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -939,16 +896,16 @@
     </row>
     <row r="8" spans="2:7" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
@@ -962,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
@@ -979,10 +936,10 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -994,63 +951,63 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -1062,18 +1019,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -1082,143 +1039,143 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -1227,92 +1184,92 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-11-data.xlsx
+++ b/data/epp-11-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo.duarte/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D7018-E516-3D4D-AFFF-465B7B900603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF8E670-A984-0E40-BF4B-968594E75D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
+    <workbookView xWindow="33280" yWindow="980" windowWidth="43120" windowHeight="25960" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>errorCode</t>
   </si>
@@ -199,6 +199,9 @@
 * Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
 * This means that all cells in the first row MUST be populated.
 * IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:G28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B7:G28" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:G29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B7:G29" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -810,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,37 +1137,34 @@
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -1177,25 +1177,28 @@
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
+      <c r="E23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1</v>
@@ -1212,7 +1215,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1</v>
@@ -1229,7 +1232,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1</v>
@@ -1246,7 +1249,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1</v>
@@ -1263,12 +1266,29 @@
         <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/data/epp-11-data.xlsx
+++ b/data/epp-11-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo.duarte/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF8E670-A984-0E40-BF4B-968594E75D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60FE449-E465-0F40-B09E-FB453DBCFD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33280" yWindow="980" windowWidth="43120" windowHeight="25960" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
   <si>
     <t>errorCode</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Whether the superordinate domain name should be created before the subordinate host name is created (if it does not already exist)</t>
-  </si>
-  <si>
-    <t>EPP_HOST_CREATE_SERVER_DOES_NOT_REQUIRE_GLUE</t>
   </si>
   <si>
     <t>{PREVIOUS}</t>
@@ -475,8 +472,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:G29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B7:G29" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:G28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B7:G28" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -813,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:G29"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +840,7 @@
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -861,7 +858,7 @@
     </row>
     <row r="5" spans="2:7" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -939,7 +936,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -959,7 +956,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -973,7 +970,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -987,7 +984,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -996,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
@@ -1007,13 +1004,13 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -1022,21 +1019,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1</v>
@@ -1047,13 +1041,13 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
@@ -1064,13 +1058,13 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1</v>
@@ -1081,13 +1075,13 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1</v>
@@ -1098,13 +1092,13 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
@@ -1115,13 +1109,13 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1</v>
@@ -1132,44 +1126,47 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>33</v>
@@ -1177,28 +1174,25 @@
       <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>48</v>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1</v>
@@ -1209,13 +1203,13 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1</v>
@@ -1226,13 +1220,13 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1</v>
@@ -1243,13 +1237,13 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1</v>
@@ -1260,35 +1254,18 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
